--- a/data/pca/factorExposure/factorExposure_2018-03-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.006791874143399966</v>
+        <v>-0.01258869301908564</v>
       </c>
       <c r="C2">
-        <v>-0.02493357200355226</v>
+        <v>0.02482460577966891</v>
       </c>
       <c r="D2">
-        <v>0.01968715780735377</v>
+        <v>0.02390053225292686</v>
       </c>
       <c r="E2">
-        <v>0.00830798327495217</v>
+        <v>-0.02167535196386006</v>
       </c>
       <c r="F2">
-        <v>-0.08107966167567253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.0007267876820709695</v>
+      </c>
+      <c r="G2">
+        <v>-0.01140017394821771</v>
+      </c>
+      <c r="H2">
+        <v>0.04563036878024528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08802840672710124</v>
+        <v>-0.05689361451526589</v>
       </c>
       <c r="C3">
-        <v>-0.04929563693850155</v>
+        <v>0.07778930147824745</v>
       </c>
       <c r="D3">
-        <v>-0.008542401910915954</v>
+        <v>0.00497633556189406</v>
       </c>
       <c r="E3">
-        <v>0.03424026095936984</v>
+        <v>-0.03757852755137306</v>
       </c>
       <c r="F3">
-        <v>-0.3174363738943552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.07874980152001464</v>
+      </c>
+      <c r="G3">
+        <v>-0.067780854721756</v>
+      </c>
+      <c r="H3">
+        <v>0.1205886765037861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04522497248911904</v>
+        <v>-0.03460481715951362</v>
       </c>
       <c r="C4">
-        <v>-0.01307238507085532</v>
+        <v>0.06280822760272904</v>
       </c>
       <c r="D4">
-        <v>0.02993084114734</v>
+        <v>0.01698395744416252</v>
       </c>
       <c r="E4">
-        <v>-0.03848989087420627</v>
+        <v>0.02421031290192586</v>
       </c>
       <c r="F4">
-        <v>-0.06085887851952373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.003067324453463877</v>
+      </c>
+      <c r="G4">
+        <v>-0.04619272516822417</v>
+      </c>
+      <c r="H4">
+        <v>0.05226169484438421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03473861810889985</v>
+        <v>-0.01854689493398312</v>
       </c>
       <c r="C6">
-        <v>-0.01722521601083678</v>
+        <v>0.06475133319434494</v>
       </c>
       <c r="D6">
-        <v>0.03994013271714364</v>
+        <v>0.01211799252649149</v>
       </c>
       <c r="E6">
-        <v>-0.02793806905263022</v>
+        <v>0.01091209045433126</v>
       </c>
       <c r="F6">
-        <v>-0.0203207751162304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.0152282669607488</v>
+      </c>
+      <c r="G6">
+        <v>-0.02743421689515415</v>
+      </c>
+      <c r="H6">
+        <v>0.05034313232775402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04116376198733875</v>
+        <v>-0.006167545324730942</v>
       </c>
       <c r="C7">
-        <v>0.03138373398919311</v>
+        <v>0.03387655206468666</v>
       </c>
       <c r="D7">
-        <v>0.02292734124818601</v>
+        <v>0.01049489716911428</v>
       </c>
       <c r="E7">
-        <v>-0.008618445884463883</v>
+        <v>0.03949406455758027</v>
       </c>
       <c r="F7">
-        <v>-0.02702883354599272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02789357042667584</v>
+      </c>
+      <c r="G7">
+        <v>-0.00529908119537612</v>
+      </c>
+      <c r="H7">
+        <v>0.0326274534531614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01437935137539369</v>
+        <v>0.003506379408557391</v>
       </c>
       <c r="C8">
-        <v>0.002345208129578702</v>
+        <v>0.009226461870923051</v>
       </c>
       <c r="D8">
-        <v>0.03652807111826312</v>
+        <v>0.001626631567583412</v>
       </c>
       <c r="E8">
-        <v>-0.02792152062565851</v>
+        <v>0.0064651172617275</v>
       </c>
       <c r="F8">
-        <v>-0.05238321402901006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.01904980832775927</v>
+      </c>
+      <c r="G8">
+        <v>-0.02789488275464273</v>
+      </c>
+      <c r="H8">
+        <v>0.02517102130343545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03206603993616172</v>
+        <v>-0.01946951482659826</v>
       </c>
       <c r="C9">
-        <v>-0.005516524740340991</v>
+        <v>0.04799681568987205</v>
       </c>
       <c r="D9">
-        <v>0.03072006584292314</v>
+        <v>0.01165222509997342</v>
       </c>
       <c r="E9">
-        <v>-0.01248977915215532</v>
+        <v>0.006018868214064516</v>
       </c>
       <c r="F9">
-        <v>-0.07307402794288903</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01393884085994565</v>
+      </c>
+      <c r="G9">
+        <v>-0.02898858292126718</v>
+      </c>
+      <c r="H9">
+        <v>0.05181617433295482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03641630099026808</v>
+        <v>-0.1387532092090709</v>
       </c>
       <c r="C10">
-        <v>-0.0008960864254731804</v>
+        <v>-0.1386371405809914</v>
       </c>
       <c r="D10">
-        <v>-0.1433112354672807</v>
+        <v>-0.02398962835379863</v>
       </c>
       <c r="E10">
-        <v>0.05513008808989601</v>
+        <v>-0.02027379800802455</v>
       </c>
       <c r="F10">
-        <v>-0.05331998394315023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04887406653040319</v>
+      </c>
+      <c r="G10">
+        <v>0.002225850393802342</v>
+      </c>
+      <c r="H10">
+        <v>-0.007072127032411392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02903457037575497</v>
+        <v>-0.01319072561002015</v>
       </c>
       <c r="C11">
-        <v>-0.02413363199732541</v>
+        <v>0.05018540231438035</v>
       </c>
       <c r="D11">
-        <v>0.0338771157222593</v>
+        <v>-0.001209756058469113</v>
       </c>
       <c r="E11">
-        <v>-0.02437453133018386</v>
+        <v>0.001270776146715783</v>
       </c>
       <c r="F11">
-        <v>-0.02294334256807204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.005675168346793251</v>
+      </c>
+      <c r="G11">
+        <v>-0.01455985298559317</v>
+      </c>
+      <c r="H11">
+        <v>0.04693857450333329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04173153499452578</v>
+        <v>-0.01856520472331902</v>
       </c>
       <c r="C12">
-        <v>-0.02495297016017011</v>
+        <v>0.0480832085634646</v>
       </c>
       <c r="D12">
-        <v>0.02700532134018509</v>
+        <v>0.002350087177504403</v>
       </c>
       <c r="E12">
-        <v>-0.03289941858124076</v>
+        <v>0.01497965594337471</v>
       </c>
       <c r="F12">
-        <v>0.003679547461436121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.005818295918551894</v>
+      </c>
+      <c r="G12">
+        <v>-0.008105653129933298</v>
+      </c>
+      <c r="H12">
+        <v>0.01872514533390829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.006004868697877632</v>
+        <v>-0.01351215357181453</v>
       </c>
       <c r="C13">
-        <v>-0.01911262571355933</v>
+        <v>0.02465002511600166</v>
       </c>
       <c r="D13">
-        <v>0.008363768147317339</v>
+        <v>0.02024017870784567</v>
       </c>
       <c r="E13">
-        <v>-0.009587688238735695</v>
+        <v>-0.01734606182724441</v>
       </c>
       <c r="F13">
-        <v>-0.06902247336914114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.005942522450391876</v>
+      </c>
+      <c r="G13">
+        <v>-0.0398287871422839</v>
+      </c>
+      <c r="H13">
+        <v>0.06602777091722867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02526539357386033</v>
+        <v>-0.006997360303520712</v>
       </c>
       <c r="C14">
-        <v>0.003416928564575689</v>
+        <v>0.02128329411902291</v>
       </c>
       <c r="D14">
-        <v>0.01448373738319586</v>
+        <v>0.005907597751726684</v>
       </c>
       <c r="E14">
-        <v>-0.0163744571590313</v>
+        <v>0.01296790640283359</v>
       </c>
       <c r="F14">
-        <v>-0.04149769844966352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01795916781196285</v>
+      </c>
+      <c r="G14">
+        <v>-0.02204149384138673</v>
+      </c>
+      <c r="H14">
+        <v>0.01688954333938587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03044666718293575</v>
+        <v>-0.01525858062484045</v>
       </c>
       <c r="C16">
-        <v>-0.02337341566429851</v>
+        <v>0.0439043399589186</v>
       </c>
       <c r="D16">
-        <v>0.03760767305727956</v>
+        <v>-0.001734725871956188</v>
       </c>
       <c r="E16">
-        <v>-0.02532613251889936</v>
+        <v>0.005332421944693917</v>
       </c>
       <c r="F16">
-        <v>-0.02753812917871181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.002852877456088743</v>
+      </c>
+      <c r="G16">
+        <v>-0.01624199675474164</v>
+      </c>
+      <c r="H16">
+        <v>0.036029597460447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03440912721293251</v>
+        <v>-0.01567941539016031</v>
       </c>
       <c r="C19">
-        <v>-0.01564877580042983</v>
+        <v>0.04334473214155574</v>
       </c>
       <c r="D19">
-        <v>0.03404491229399686</v>
+        <v>0.01038785911423545</v>
       </c>
       <c r="E19">
-        <v>-0.03972495992309539</v>
+        <v>0.00657191588043921</v>
       </c>
       <c r="F19">
-        <v>-0.0705936871125792</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.01856182563114643</v>
+      </c>
+      <c r="G19">
+        <v>-0.04443371752911628</v>
+      </c>
+      <c r="H19">
+        <v>0.05342972783199297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003357817515573203</v>
+        <v>-0.00244246228454067</v>
       </c>
       <c r="C20">
-        <v>0.009614453601196386</v>
+        <v>0.02135550056418094</v>
       </c>
       <c r="D20">
-        <v>0.003018390802670934</v>
+        <v>0.01003972734588237</v>
       </c>
       <c r="E20">
-        <v>-0.01420506038162811</v>
+        <v>-0.002286529229794422</v>
       </c>
       <c r="F20">
-        <v>-0.04582944045385897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02137455076337622</v>
+      </c>
+      <c r="G20">
+        <v>-0.03390566823481232</v>
+      </c>
+      <c r="H20">
+        <v>0.02844843100274065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02165368196172853</v>
+        <v>-0.006328079161795043</v>
       </c>
       <c r="C21">
-        <v>0.009958617340063754</v>
+        <v>0.02141124494875762</v>
       </c>
       <c r="D21">
-        <v>0.02998318160932647</v>
+        <v>0.01248347772085514</v>
       </c>
       <c r="E21">
-        <v>-0.01274336835272426</v>
+        <v>0.01014152734555997</v>
       </c>
       <c r="F21">
-        <v>-0.01754452015056185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02242705626700028</v>
+      </c>
+      <c r="G21">
+        <v>-0.01848478746985189</v>
+      </c>
+      <c r="H21">
+        <v>0.03946419256064224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02585457329359058</v>
+        <v>-0.008854893677217875</v>
       </c>
       <c r="C24">
-        <v>-0.02009918467070977</v>
+        <v>0.04195642014953631</v>
       </c>
       <c r="D24">
-        <v>0.0179024842143767</v>
+        <v>0.003840521139806688</v>
       </c>
       <c r="E24">
-        <v>-0.02114255889291733</v>
+        <v>0.00576858881434619</v>
       </c>
       <c r="F24">
-        <v>-0.02641059668339579</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.008160914618363121</v>
+      </c>
+      <c r="G24">
+        <v>-0.007761340741864757</v>
+      </c>
+      <c r="H24">
+        <v>0.0414244842828022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03105398075461974</v>
+        <v>-0.02320150565275276</v>
       </c>
       <c r="C25">
-        <v>-0.02004117275762604</v>
+        <v>0.05001293521025527</v>
       </c>
       <c r="D25">
-        <v>0.02814205923483285</v>
+        <v>0.006700347074633376</v>
       </c>
       <c r="E25">
-        <v>-0.01995638357181775</v>
+        <v>0.0120866699604114</v>
       </c>
       <c r="F25">
-        <v>-0.02948460828255061</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.007983603525444742</v>
+      </c>
+      <c r="G25">
+        <v>-0.01756064472561015</v>
+      </c>
+      <c r="H25">
+        <v>0.03823728497248731</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01451667623675144</v>
+        <v>-0.005937201274825662</v>
       </c>
       <c r="C26">
-        <v>-0.005333077463121597</v>
+        <v>0.005605721473983721</v>
       </c>
       <c r="D26">
-        <v>0.01373588684540873</v>
+        <v>0.02227716733471541</v>
       </c>
       <c r="E26">
-        <v>0.01106591253978125</v>
+        <v>0.002713792586508733</v>
       </c>
       <c r="F26">
-        <v>-0.05132383151729335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.0124004308118119</v>
+      </c>
+      <c r="G26">
+        <v>-0.006819113716614335</v>
+      </c>
+      <c r="H26">
+        <v>0.01941073631634727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.02830032915235199</v>
+        <v>-0.008310230289830632</v>
       </c>
       <c r="C27">
-        <v>-0.008441112078508207</v>
+        <v>0.009029771043402366</v>
       </c>
       <c r="D27">
-        <v>-0.003471938309260379</v>
+        <v>-0.001650584339654697</v>
       </c>
       <c r="E27">
-        <v>-0.02882217017066879</v>
+        <v>0.007559845554426604</v>
       </c>
       <c r="F27">
-        <v>-0.00591734977546738</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.00778150134784259</v>
+      </c>
+      <c r="G27">
+        <v>-0.007382655219454923</v>
+      </c>
+      <c r="H27">
+        <v>-0.009706685819477831</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07387182060927235</v>
+        <v>-0.1917093671168912</v>
       </c>
       <c r="C28">
-        <v>-0.006547237367180337</v>
+        <v>-0.1780753196277285</v>
       </c>
       <c r="D28">
-        <v>-0.2115459240119866</v>
+        <v>-0.01874542854629356</v>
       </c>
       <c r="E28">
-        <v>0.09017919588320265</v>
+        <v>-0.002981065184993225</v>
       </c>
       <c r="F28">
-        <v>-0.05013944435475153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.05030461749890747</v>
+      </c>
+      <c r="G28">
+        <v>0.01232686574443303</v>
+      </c>
+      <c r="H28">
+        <v>-0.01042765034357514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02584790518014584</v>
+        <v>-0.01166962979264115</v>
       </c>
       <c r="C29">
-        <v>7.524828177307504e-05</v>
+        <v>0.01889342273776456</v>
       </c>
       <c r="D29">
-        <v>0.01520631628639971</v>
+        <v>0.004839242205131903</v>
       </c>
       <c r="E29">
-        <v>-0.01848662875930324</v>
+        <v>0.009955433266979454</v>
       </c>
       <c r="F29">
-        <v>-0.03941464982439775</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.01930456312565548</v>
+      </c>
+      <c r="G29">
+        <v>-0.02208023399779302</v>
+      </c>
+      <c r="H29">
+        <v>0.008808197534092899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03203934859566578</v>
+        <v>-0.02163246703334486</v>
       </c>
       <c r="C30">
-        <v>-0.06865515636532124</v>
+        <v>0.08760550762468307</v>
       </c>
       <c r="D30">
-        <v>0.05182801829154279</v>
+        <v>0.02197610367594339</v>
       </c>
       <c r="E30">
-        <v>-0.02641677822088168</v>
+        <v>-0.02773085150594225</v>
       </c>
       <c r="F30">
-        <v>-0.07894174104691927</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.01554871126024458</v>
+      </c>
+      <c r="G30">
+        <v>-0.04912891369747871</v>
+      </c>
+      <c r="H30">
+        <v>0.07240039801915037</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04774617493116385</v>
+        <v>-0.03549387559165799</v>
       </c>
       <c r="C31">
-        <v>-0.02659520584566097</v>
+        <v>0.03360679894539803</v>
       </c>
       <c r="D31">
-        <v>0.01556446373087676</v>
+        <v>-0.0005263720411439293</v>
       </c>
       <c r="E31">
-        <v>-0.02481434862602988</v>
+        <v>0.004555590859482664</v>
       </c>
       <c r="F31">
-        <v>-0.03211430236231046</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01423368031960891</v>
+      </c>
+      <c r="G31">
+        <v>-0.009267442356314331</v>
+      </c>
+      <c r="H31">
+        <v>-0.000131106051750886</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0256329944798125</v>
+        <v>0.00205671717981665</v>
       </c>
       <c r="C32">
-        <v>0.01476169073633076</v>
+        <v>0.01263937143892464</v>
       </c>
       <c r="D32">
-        <v>0.05231136934729234</v>
+        <v>-0.007945165352824199</v>
       </c>
       <c r="E32">
-        <v>-0.04163541562300659</v>
+        <v>0.0297602712414189</v>
       </c>
       <c r="F32">
-        <v>-0.03784055211862254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.01830879140742897</v>
+      </c>
+      <c r="G32">
+        <v>-0.04827608018080928</v>
+      </c>
+      <c r="H32">
+        <v>0.04327828497609278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02968614603957413</v>
+        <v>-0.01662774493455732</v>
       </c>
       <c r="C33">
-        <v>-0.04146543302460241</v>
+        <v>0.04804705275954732</v>
       </c>
       <c r="D33">
-        <v>0.04407364964120297</v>
+        <v>0.01030445887830067</v>
       </c>
       <c r="E33">
-        <v>-0.008720223155992643</v>
+        <v>-0.02423535939132887</v>
       </c>
       <c r="F33">
-        <v>-0.05381489481400904</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01550265885372936</v>
+      </c>
+      <c r="G33">
+        <v>-0.01496389599972738</v>
+      </c>
+      <c r="H33">
+        <v>0.04834218380402922</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03439454644348372</v>
+        <v>-0.02432836953968592</v>
       </c>
       <c r="C34">
-        <v>-0.0154255901353797</v>
+        <v>0.05114897406199553</v>
       </c>
       <c r="D34">
-        <v>0.03551657426109363</v>
+        <v>-0.00982236427765904</v>
       </c>
       <c r="E34">
-        <v>-0.03136748750879158</v>
+        <v>0.02008966258275546</v>
       </c>
       <c r="F34">
-        <v>-0.02221951957574925</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.008729635033893882</v>
+      </c>
+      <c r="G34">
+        <v>-0.01186075565533399</v>
+      </c>
+      <c r="H34">
+        <v>0.03562691692689333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01915768053331493</v>
+        <v>-0.01254731200826403</v>
       </c>
       <c r="C36">
-        <v>0.002038615269677058</v>
+        <v>0.006630330302046092</v>
       </c>
       <c r="D36">
-        <v>0.005061932239036756</v>
+        <v>0.008976030072583128</v>
       </c>
       <c r="E36">
-        <v>-0.01229583526633438</v>
+        <v>0.005861640139036114</v>
       </c>
       <c r="F36">
-        <v>-0.02884016143767884</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01395225714161404</v>
+      </c>
+      <c r="G36">
+        <v>-0.008727419038619212</v>
+      </c>
+      <c r="H36">
+        <v>0.01190247771691934</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0125315016879008</v>
+        <v>-0.02650581664192166</v>
       </c>
       <c r="C38">
-        <v>-0.01008813821178328</v>
+        <v>0.02204567689002268</v>
       </c>
       <c r="D38">
-        <v>-0.002604791354709267</v>
+        <v>-0.01131247673298798</v>
       </c>
       <c r="E38">
-        <v>0.02105714247316832</v>
+        <v>-0.000132460735596727</v>
       </c>
       <c r="F38">
-        <v>-0.04479480424251472</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.0009856057466863133</v>
+      </c>
+      <c r="G38">
+        <v>-0.01270665450579529</v>
+      </c>
+      <c r="H38">
+        <v>0.03559499974242149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02616132047022789</v>
+        <v>-0.001459232371083276</v>
       </c>
       <c r="C39">
-        <v>-0.02126699893674471</v>
+        <v>0.08795038669722163</v>
       </c>
       <c r="D39">
-        <v>0.05889385934762027</v>
+        <v>0.008694422409178256</v>
       </c>
       <c r="E39">
-        <v>-0.02340642664377582</v>
+        <v>-0.002691457922171411</v>
       </c>
       <c r="F39">
-        <v>-0.04476012970390197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01009674378700101</v>
+      </c>
+      <c r="G39">
+        <v>-0.02247130011173019</v>
+      </c>
+      <c r="H39">
+        <v>0.07707267636030345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01180975216947422</v>
+        <v>-0.0186570564478448</v>
       </c>
       <c r="C40">
-        <v>-0.04309184440774059</v>
+        <v>0.02970849440777812</v>
       </c>
       <c r="D40">
-        <v>0.01686085789867117</v>
+        <v>0.007842071302844382</v>
       </c>
       <c r="E40">
-        <v>-0.03164449519765897</v>
+        <v>-0.01095200808751831</v>
       </c>
       <c r="F40">
-        <v>-0.02966281902772947</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02462338293586907</v>
+      </c>
+      <c r="G40">
+        <v>-0.02311998643058412</v>
+      </c>
+      <c r="H40">
+        <v>0.04399182633532387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.00850144200730314</v>
+        <v>-0.01193190855525934</v>
       </c>
       <c r="C41">
-        <v>-0.0008389332401829684</v>
+        <v>-0.007549191744749503</v>
       </c>
       <c r="D41">
-        <v>0.003758910644140237</v>
+        <v>0.002059394585526427</v>
       </c>
       <c r="E41">
-        <v>0.01234263002423998</v>
+        <v>0.00214628465959785</v>
       </c>
       <c r="F41">
-        <v>-0.004977022310645215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.007122732990273021</v>
+      </c>
+      <c r="G41">
+        <v>0.008074971645475298</v>
+      </c>
+      <c r="H41">
+        <v>-0.003164741139132987</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2358782487961813</v>
+        <v>-0.07924428794679997</v>
       </c>
       <c r="C42">
-        <v>-0.2861057611395126</v>
+        <v>0.2137699788969604</v>
       </c>
       <c r="D42">
-        <v>0.28585288859961</v>
+        <v>0.1208471285427023</v>
       </c>
       <c r="E42">
-        <v>0.8147481230240018</v>
+        <v>-0.3424661931150402</v>
       </c>
       <c r="F42">
-        <v>0.2777443367707185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.2509272108321372</v>
+      </c>
+      <c r="G42">
+        <v>0.8552722716643286</v>
+      </c>
+      <c r="H42">
+        <v>0.05943518190778332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01112948661518285</v>
+        <v>-0.01283305340990045</v>
       </c>
       <c r="C43">
-        <v>-0.005141211329171276</v>
+        <v>-0.005790599976342456</v>
       </c>
       <c r="D43">
-        <v>0.006397919528341529</v>
+        <v>0.002744156214888994</v>
       </c>
       <c r="E43">
-        <v>0.0006810582968165393</v>
+        <v>0.002629266601103261</v>
       </c>
       <c r="F43">
-        <v>-0.02439915024578138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.004810086302221968</v>
+      </c>
+      <c r="G43">
+        <v>0.00777828110445119</v>
+      </c>
+      <c r="H43">
+        <v>0.005826726968735321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02587184612257613</v>
+        <v>-0.006312067057915979</v>
       </c>
       <c r="C44">
-        <v>0.006337095309681803</v>
+        <v>0.03961691744115268</v>
       </c>
       <c r="D44">
-        <v>0.02981770898895129</v>
+        <v>0.003563861982045783</v>
       </c>
       <c r="E44">
-        <v>0.007257215841281643</v>
+        <v>0.004829607034794211</v>
       </c>
       <c r="F44">
-        <v>-0.08810151566481501</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.03001276293479844</v>
+      </c>
+      <c r="G44">
+        <v>-0.01371450799962154</v>
+      </c>
+      <c r="H44">
+        <v>0.06053822957738091</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01901498193517707</v>
+        <v>-0.003257901078321585</v>
       </c>
       <c r="C46">
-        <v>-0.008393503677159278</v>
+        <v>0.01330301412370698</v>
       </c>
       <c r="D46">
-        <v>0.04383420935654227</v>
+        <v>0.01012268210886278</v>
       </c>
       <c r="E46">
-        <v>-0.02190469596032857</v>
+        <v>0.004105860411102113</v>
       </c>
       <c r="F46">
-        <v>-0.05492337342314634</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01237278540263442</v>
+      </c>
+      <c r="G46">
+        <v>-0.01330128365433291</v>
+      </c>
+      <c r="H46">
+        <v>0.01457899761994785</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07495892180708262</v>
+        <v>-0.05364923257825353</v>
       </c>
       <c r="C47">
-        <v>-0.0478034319597429</v>
+        <v>0.06928455272243197</v>
       </c>
       <c r="D47">
-        <v>0.003551192520416203</v>
+        <v>-0.01057155111703788</v>
       </c>
       <c r="E47">
-        <v>-0.03636012355530673</v>
+        <v>0.01086804328520796</v>
       </c>
       <c r="F47">
-        <v>-0.006136636111034772</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.003092268501647918</v>
+      </c>
+      <c r="G47">
+        <v>-0.005772514259168414</v>
+      </c>
+      <c r="H47">
+        <v>-0.03509663624788985</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01811741655417009</v>
+        <v>-0.01315428364157082</v>
       </c>
       <c r="C48">
-        <v>-0.009119199814690173</v>
+        <v>0.01577196322841004</v>
       </c>
       <c r="D48">
-        <v>0.01312930359174152</v>
+        <v>-0.0004836152366209714</v>
       </c>
       <c r="E48">
-        <v>-0.01067775277171796</v>
+        <v>0.00176109617144884</v>
       </c>
       <c r="F48">
-        <v>-0.03122871435012199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.006754241783415479</v>
+      </c>
+      <c r="G48">
+        <v>-0.009204612839145462</v>
+      </c>
+      <c r="H48">
+        <v>0.01796646602429306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08466498834139635</v>
+        <v>-0.05526703656516346</v>
       </c>
       <c r="C50">
-        <v>-0.02348215625504156</v>
+        <v>0.06497740598711504</v>
       </c>
       <c r="D50">
-        <v>0.02817045477804132</v>
+        <v>-0.008583338307307627</v>
       </c>
       <c r="E50">
-        <v>-0.02269652648790962</v>
+        <v>0.0258190705239681</v>
       </c>
       <c r="F50">
-        <v>-0.01517325962141644</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02050315020797072</v>
+      </c>
+      <c r="G50">
+        <v>-0.001463980181252093</v>
+      </c>
+      <c r="H50">
+        <v>-0.02170745649554633</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01605303177129645</v>
+        <v>-0.01420232727010865</v>
       </c>
       <c r="C51">
-        <v>0.003076798162977702</v>
+        <v>0.01703402384381835</v>
       </c>
       <c r="D51">
-        <v>-0.003597654099485361</v>
+        <v>0.004725716861060204</v>
       </c>
       <c r="E51">
-        <v>-0.001526521799605495</v>
+        <v>0.008817246303557371</v>
       </c>
       <c r="F51">
-        <v>-0.09237990526107961</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01157910514238159</v>
+      </c>
+      <c r="G51">
+        <v>-0.01662001603570152</v>
+      </c>
+      <c r="H51">
+        <v>0.05066922757748218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08687797132860629</v>
+        <v>-0.07021994132365694</v>
       </c>
       <c r="C53">
-        <v>-0.05001438395519893</v>
+        <v>0.1064715762775207</v>
       </c>
       <c r="D53">
-        <v>0.03557454877298129</v>
+        <v>-0.01186342260067399</v>
       </c>
       <c r="E53">
-        <v>-0.05104774957829136</v>
+        <v>0.02246312895880284</v>
       </c>
       <c r="F53">
-        <v>0.02986582120525449</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.01486539394009087</v>
+      </c>
+      <c r="G53">
+        <v>0.0005440414022966793</v>
+      </c>
+      <c r="H53">
+        <v>-0.03973667780691115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02639546910893871</v>
+        <v>-0.02225213458811019</v>
       </c>
       <c r="C54">
-        <v>0.001054506354522174</v>
+        <v>0.001373441067491792</v>
       </c>
       <c r="D54">
-        <v>-0.00450758115794498</v>
+        <v>-0.006676984015041702</v>
       </c>
       <c r="E54">
-        <v>-0.0241826930254874</v>
+        <v>0.003129597864434662</v>
       </c>
       <c r="F54">
-        <v>-0.02819984101172191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02495752829477951</v>
+      </c>
+      <c r="G54">
+        <v>-0.02389144653618799</v>
+      </c>
+      <c r="H54">
+        <v>0.006305697976709842</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08111686885998398</v>
+        <v>-0.0519555679421399</v>
       </c>
       <c r="C55">
-        <v>-0.04729177419551928</v>
+        <v>0.09496353688622249</v>
       </c>
       <c r="D55">
-        <v>0.04072498900239808</v>
+        <v>-0.009544261397448109</v>
       </c>
       <c r="E55">
-        <v>-0.03776084341576057</v>
+        <v>0.01327039815774074</v>
       </c>
       <c r="F55">
-        <v>0.02977412393994621</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.0002466005339996709</v>
+      </c>
+      <c r="G55">
+        <v>-0.002064985551717199</v>
+      </c>
+      <c r="H55">
+        <v>-0.03822884871486651</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1196339638828056</v>
+        <v>-0.09549593294261356</v>
       </c>
       <c r="C56">
-        <v>-0.07749206836952899</v>
+        <v>0.1360642453037167</v>
       </c>
       <c r="D56">
-        <v>0.01538349771957816</v>
+        <v>-0.02130194359163817</v>
       </c>
       <c r="E56">
-        <v>-0.08289005958046296</v>
+        <v>0.03170560158509103</v>
       </c>
       <c r="F56">
-        <v>0.05365360554274012</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.03522841019312022</v>
+      </c>
+      <c r="G56">
+        <v>0.00250935527094666</v>
+      </c>
+      <c r="H56">
+        <v>-0.08462347476084581</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03447098526981573</v>
+        <v>-0.02110486355667797</v>
       </c>
       <c r="C57">
-        <v>-0.02361086535247382</v>
+        <v>0.03022828756529911</v>
       </c>
       <c r="D57">
-        <v>0.02133089031148316</v>
+        <v>0.02207779626268047</v>
       </c>
       <c r="E57">
-        <v>0.03343879001476295</v>
+        <v>-0.0186772123712592</v>
       </c>
       <c r="F57">
-        <v>-0.05707200899391727</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.03926607486891846</v>
+      </c>
+      <c r="G57">
+        <v>-0.02889770399819713</v>
+      </c>
+      <c r="H57">
+        <v>0.064331313571955</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1405059259208565</v>
+        <v>-0.07015858471558327</v>
       </c>
       <c r="C58">
-        <v>-0.2285688554181746</v>
+        <v>0.1832368275661767</v>
       </c>
       <c r="D58">
-        <v>0.1878228515961479</v>
+        <v>0.002698355020937287</v>
       </c>
       <c r="E58">
-        <v>-0.01155206120391261</v>
+        <v>-0.587024109065504</v>
       </c>
       <c r="F58">
-        <v>-0.5757239687385832</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.5802135301936816</v>
+      </c>
+      <c r="G58">
+        <v>-0.4527227382006096</v>
+      </c>
+      <c r="H58">
+        <v>-0.1097153157526273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05783307237642207</v>
+        <v>-0.2100850076037304</v>
       </c>
       <c r="C59">
-        <v>-0.03127681565964767</v>
+        <v>-0.163755509290011</v>
       </c>
       <c r="D59">
-        <v>-0.1871783080193839</v>
+        <v>-0.0269253089968939</v>
       </c>
       <c r="E59">
-        <v>0.04433134619971225</v>
+        <v>-0.01489831016814843</v>
       </c>
       <c r="F59">
-        <v>-0.08376011490830351</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01493799954311523</v>
+      </c>
+      <c r="G59">
+        <v>-0.01120863087406056</v>
+      </c>
+      <c r="H59">
+        <v>0.01540997941345863</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1259916976376963</v>
+        <v>-0.226611394853614</v>
       </c>
       <c r="C60">
-        <v>-0.1131046407395423</v>
+        <v>0.07815857019577693</v>
       </c>
       <c r="D60">
-        <v>-0.01420216894264734</v>
+        <v>-0.01255720261050974</v>
       </c>
       <c r="E60">
-        <v>0.01953324204680353</v>
+        <v>-0.01342239549118707</v>
       </c>
       <c r="F60">
-        <v>-0.1792145301191475</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1411137058502155</v>
+      </c>
+      <c r="G60">
+        <v>-0.05523334496969961</v>
+      </c>
+      <c r="H60">
+        <v>0.3891537657427587</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02205739783995251</v>
+        <v>-0.01144068995274809</v>
       </c>
       <c r="C61">
-        <v>-0.01434296584654102</v>
+        <v>0.06314265513411872</v>
       </c>
       <c r="D61">
-        <v>0.0409806085604008</v>
+        <v>0.001422302617222595</v>
       </c>
       <c r="E61">
-        <v>-0.008950013741371903</v>
+        <v>0.00590828651335722</v>
       </c>
       <c r="F61">
-        <v>-0.02032057832748283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.006301573301715883</v>
+      </c>
+      <c r="G61">
+        <v>-0.02102897936109273</v>
+      </c>
+      <c r="H61">
+        <v>0.05613651434567092</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01728750690028082</v>
+        <v>-0.007115451834343853</v>
       </c>
       <c r="C63">
-        <v>-0.005431178760212786</v>
+        <v>0.02386557288331768</v>
       </c>
       <c r="D63">
-        <v>0.01792622544096285</v>
+        <v>0.006100142592575957</v>
       </c>
       <c r="E63">
-        <v>-0.004404148724692717</v>
+        <v>0.009807911202878878</v>
       </c>
       <c r="F63">
-        <v>-0.002066522291155246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.006228771384405233</v>
+      </c>
+      <c r="G63">
+        <v>-0.01019903782339348</v>
+      </c>
+      <c r="H63">
+        <v>0.01166256029319277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04138760242761289</v>
+        <v>-0.03405980308527753</v>
       </c>
       <c r="C64">
-        <v>-0.00932509361578949</v>
+        <v>0.04559166584033415</v>
       </c>
       <c r="D64">
-        <v>0.02474756939137631</v>
+        <v>0.0004433949122080312</v>
       </c>
       <c r="E64">
-        <v>-0.02208902980154125</v>
+        <v>0.02142073948856647</v>
       </c>
       <c r="F64">
-        <v>-0.009551132895270674</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.008414449653703453</v>
+      </c>
+      <c r="G64">
+        <v>0.01075746707750575</v>
+      </c>
+      <c r="H64">
+        <v>0.03653928983165575</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03886972657884411</v>
+        <v>-0.04116182087612003</v>
       </c>
       <c r="C65">
-        <v>-0.01900540421036698</v>
+        <v>0.08376346625844551</v>
       </c>
       <c r="D65">
-        <v>0.03945857143346571</v>
+        <v>0.01067105969262799</v>
       </c>
       <c r="E65">
-        <v>-0.03282098731987482</v>
+        <v>0.0203535705601293</v>
       </c>
       <c r="F65">
-        <v>-0.01318997752790183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03660478257321704</v>
+      </c>
+      <c r="G65">
+        <v>-0.02878358171218495</v>
+      </c>
+      <c r="H65">
+        <v>0.0659226208324221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03323546881469583</v>
+        <v>-0.01028782676571679</v>
       </c>
       <c r="C66">
-        <v>-0.03412815176048625</v>
+        <v>0.118291310920554</v>
       </c>
       <c r="D66">
-        <v>0.06287093343736146</v>
+        <v>0.005378202607248818</v>
       </c>
       <c r="E66">
-        <v>-0.05130689477134016</v>
+        <v>0.003452954392890783</v>
       </c>
       <c r="F66">
-        <v>-0.032136762672796</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.030954851603267</v>
+      </c>
+      <c r="G66">
+        <v>-0.0398831770212992</v>
+      </c>
+      <c r="H66">
+        <v>0.08541315171253207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02073881696642338</v>
+        <v>-0.0491688829549466</v>
       </c>
       <c r="C67">
-        <v>-0.01521068248702603</v>
+        <v>0.02991596032767923</v>
       </c>
       <c r="D67">
-        <v>-0.01138602057069118</v>
+        <v>-0.01159180243879448</v>
       </c>
       <c r="E67">
-        <v>0.01410955084075329</v>
+        <v>0.005909596016506467</v>
       </c>
       <c r="F67">
-        <v>-0.03032480432812951</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01097069438431048</v>
+      </c>
+      <c r="G67">
+        <v>-0.01529680886703635</v>
+      </c>
+      <c r="H67">
+        <v>0.03470647958660354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06756685401361852</v>
+        <v>-0.2106770378230143</v>
       </c>
       <c r="C68">
-        <v>-0.0215643602270792</v>
+        <v>-0.2023978188286324</v>
       </c>
       <c r="D68">
-        <v>-0.2092447264546352</v>
+        <v>-0.007726037174823004</v>
       </c>
       <c r="E68">
-        <v>0.05642188379721193</v>
+        <v>-0.02460686451999074</v>
       </c>
       <c r="F68">
-        <v>-0.07464128946678908</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.05570032398189841</v>
+      </c>
+      <c r="G68">
+        <v>0.01234414962474013</v>
+      </c>
+      <c r="H68">
+        <v>-0.03177248719427654</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05979204925667123</v>
+        <v>-0.05440783324382381</v>
       </c>
       <c r="C69">
-        <v>-0.03817764942615197</v>
+        <v>0.06343095600992328</v>
       </c>
       <c r="D69">
-        <v>0.008993968380457717</v>
+        <v>-0.01489548753761684</v>
       </c>
       <c r="E69">
-        <v>-0.03794128117736149</v>
+        <v>0.01986018434108678</v>
       </c>
       <c r="F69">
-        <v>-0.002223023196904622</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.01736954991323315</v>
+      </c>
+      <c r="G69">
+        <v>-0.008026142594444591</v>
+      </c>
+      <c r="H69">
+        <v>-0.0071397823883021</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07161943598286506</v>
+        <v>-0.1857804313796675</v>
       </c>
       <c r="C71">
-        <v>-0.03032073738473674</v>
+        <v>-0.1581790691648087</v>
       </c>
       <c r="D71">
-        <v>-0.2134402218148133</v>
+        <v>-0.01294129418180245</v>
       </c>
       <c r="E71">
-        <v>0.09857091395853927</v>
+        <v>-0.02824381939061692</v>
       </c>
       <c r="F71">
-        <v>-0.0804399262040322</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.05815739273086574</v>
+      </c>
+      <c r="G71">
+        <v>0.0201101556322552</v>
+      </c>
+      <c r="H71">
+        <v>-0.009316356711497553</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09997409613602444</v>
+        <v>-0.05352650071920154</v>
       </c>
       <c r="C72">
-        <v>-0.08022866841918692</v>
+        <v>0.112266080345494</v>
       </c>
       <c r="D72">
-        <v>0.06915032027909943</v>
+        <v>-0.01582161771482314</v>
       </c>
       <c r="E72">
-        <v>-0.08758480268613007</v>
+        <v>0.002402148025430655</v>
       </c>
       <c r="F72">
-        <v>-0.0938155626027566</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.03869169330639312</v>
+      </c>
+      <c r="G72">
+        <v>-0.06069311842230003</v>
+      </c>
+      <c r="H72">
+        <v>0.08961709364266911</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1484878120394771</v>
+        <v>-0.290155043817048</v>
       </c>
       <c r="C73">
-        <v>-0.1882580129866908</v>
+        <v>0.1589403123342279</v>
       </c>
       <c r="D73">
-        <v>-0.005429016612586469</v>
+        <v>-0.01141761776764405</v>
       </c>
       <c r="E73">
-        <v>0.03795943168212088</v>
+        <v>-0.04236812411095134</v>
       </c>
       <c r="F73">
-        <v>-0.2042474825626006</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1928826028152063</v>
+      </c>
+      <c r="G73">
+        <v>-0.0592454211625266</v>
+      </c>
+      <c r="H73">
+        <v>0.4691141420319438</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1105441421542506</v>
+        <v>-0.09515681617038944</v>
       </c>
       <c r="C74">
-        <v>-0.07211414951391949</v>
+        <v>0.1395942378147081</v>
       </c>
       <c r="D74">
-        <v>0.02133161201858872</v>
+        <v>-0.02141589731883806</v>
       </c>
       <c r="E74">
-        <v>-0.05695084301055748</v>
+        <v>0.02936508253068717</v>
       </c>
       <c r="F74">
-        <v>0.06972205861779882</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.02659103163831743</v>
+      </c>
+      <c r="G74">
+        <v>-0.00104560151940128</v>
+      </c>
+      <c r="H74">
+        <v>-0.05270842188880247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1977875639898383</v>
+        <v>-0.1968985513257703</v>
       </c>
       <c r="C75">
-        <v>-0.14930114696123</v>
+        <v>0.2332637189409882</v>
       </c>
       <c r="D75">
-        <v>0.007624983553078776</v>
+        <v>-0.04504841512716271</v>
       </c>
       <c r="E75">
-        <v>-0.1698141196896346</v>
+        <v>0.04001944660995247</v>
       </c>
       <c r="F75">
-        <v>0.1065215253141544</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.07262570102282664</v>
+      </c>
+      <c r="G75">
+        <v>-0.01696820850556565</v>
+      </c>
+      <c r="H75">
+        <v>-0.1848892448977866</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2497820175591082</v>
+        <v>-0.1453133254245431</v>
       </c>
       <c r="C76">
-        <v>-0.1380164375292126</v>
+        <v>0.2051593275384952</v>
       </c>
       <c r="D76">
-        <v>0.008520545299100714</v>
+        <v>-0.03870615918813325</v>
       </c>
       <c r="E76">
-        <v>-0.1955508087847776</v>
+        <v>0.07971876376770354</v>
       </c>
       <c r="F76">
-        <v>0.2071033046080826</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.04942420113010743</v>
+      </c>
+      <c r="G76">
+        <v>0.001919413270965418</v>
+      </c>
+      <c r="H76">
+        <v>-0.1579237728326056</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09230421124896339</v>
+        <v>-0.04469607127910341</v>
       </c>
       <c r="C77">
-        <v>-0.07760811914539591</v>
+        <v>0.08841838658930459</v>
       </c>
       <c r="D77">
-        <v>0.06097914379563977</v>
+        <v>0.008238610811081497</v>
       </c>
       <c r="E77">
-        <v>0.03098964872304576</v>
+        <v>-0.02329729674757469</v>
       </c>
       <c r="F77">
-        <v>-0.09897138453613845</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.04170337227690047</v>
+      </c>
+      <c r="G77">
+        <v>-0.01008424445960571</v>
+      </c>
+      <c r="H77">
+        <v>0.01716994138103731</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05571693082807533</v>
+        <v>-0.02006678582018979</v>
       </c>
       <c r="C78">
-        <v>-0.02588656132213968</v>
+        <v>0.07621889695510835</v>
       </c>
       <c r="D78">
-        <v>0.0982076987710319</v>
+        <v>0.002931076206208411</v>
       </c>
       <c r="E78">
-        <v>-0.03447466082487174</v>
+        <v>0.003842771883174066</v>
       </c>
       <c r="F78">
-        <v>-0.07216425400381422</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01226848410269617</v>
+      </c>
+      <c r="G78">
+        <v>-0.03552333492158586</v>
+      </c>
+      <c r="H78">
+        <v>0.08661520360000717</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.6213131942933861</v>
+        <v>-0.09895541311555518</v>
       </c>
       <c r="C80">
-        <v>0.7542715728942432</v>
+        <v>0.1134893026883017</v>
       </c>
       <c r="D80">
-        <v>0.09181759400510618</v>
+        <v>-0.004260024684630592</v>
       </c>
       <c r="E80">
-        <v>0.07675303367421447</v>
+        <v>0.6937578238561392</v>
       </c>
       <c r="F80">
-        <v>-0.04603729425871423</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.6578519666482797</v>
+      </c>
+      <c r="G80">
+        <v>0.04068248049203897</v>
+      </c>
+      <c r="H80">
+        <v>0.1146242460611739</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1622578352209273</v>
+        <v>-0.1245745587744568</v>
       </c>
       <c r="C81">
-        <v>-0.1015181582388633</v>
+        <v>0.1472518386065431</v>
       </c>
       <c r="D81">
-        <v>-0.006240384475562654</v>
+        <v>-0.02762001127492861</v>
       </c>
       <c r="E81">
-        <v>-0.1310036908440321</v>
+        <v>0.04129815353517956</v>
       </c>
       <c r="F81">
-        <v>0.08845586908022517</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.03078738569480184</v>
+      </c>
+      <c r="G81">
+        <v>-0.003798895134591895</v>
+      </c>
+      <c r="H81">
+        <v>-0.1136626318158711</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.002006567745546965</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.000119257583681403</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.0003637440945804356</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.0005946763029047361</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.001798547389872694</v>
+      </c>
+      <c r="G82">
+        <v>0.0004588833662735128</v>
+      </c>
+      <c r="H82">
+        <v>0.002875638424536341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02759522654995556</v>
+        <v>-0.0189347936345581</v>
       </c>
       <c r="C83">
-        <v>-0.02458902251566714</v>
+        <v>0.02310106426165864</v>
       </c>
       <c r="D83">
-        <v>0.02285794941218188</v>
+        <v>0.003079277507862923</v>
       </c>
       <c r="E83">
-        <v>0.01603671552130365</v>
+        <v>-0.01147334516864622</v>
       </c>
       <c r="F83">
-        <v>-0.04853279370375974</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01973524191440497</v>
+      </c>
+      <c r="G83">
+        <v>-0.01651847556139387</v>
+      </c>
+      <c r="H83">
+        <v>0.04181281101141544</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.211753415123066</v>
+        <v>-0.1760365633315431</v>
       </c>
       <c r="C85">
-        <v>-0.1478044992637989</v>
+        <v>0.2234366182326391</v>
       </c>
       <c r="D85">
-        <v>0.0155183489983176</v>
+        <v>-0.029814283504373</v>
       </c>
       <c r="E85">
-        <v>-0.173284199922303</v>
+        <v>0.04978797239693705</v>
       </c>
       <c r="F85">
-        <v>0.1494588291649409</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.09988838195361373</v>
+      </c>
+      <c r="G85">
+        <v>0.01510142688678102</v>
+      </c>
+      <c r="H85">
+        <v>-0.1263858256048245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.008812667836541584</v>
+        <v>-0.009909530124207314</v>
       </c>
       <c r="C86">
-        <v>-0.001030456538395986</v>
+        <v>0.03481170685097946</v>
       </c>
       <c r="D86">
-        <v>0.06530004069615376</v>
+        <v>0.006742459678120199</v>
       </c>
       <c r="E86">
-        <v>0.008062450027914942</v>
+        <v>-0.002323515781253674</v>
       </c>
       <c r="F86">
-        <v>-0.04500663698133857</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02289232350062767</v>
+      </c>
+      <c r="G86">
+        <v>0.0003963917303110339</v>
+      </c>
+      <c r="H86">
+        <v>0.07534882485975015</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02846588933641477</v>
+        <v>-0.003284742365209584</v>
       </c>
       <c r="C87">
-        <v>-0.01586532670479881</v>
+        <v>0.03899940162657153</v>
       </c>
       <c r="D87">
-        <v>0.03997592963778944</v>
+        <v>0.008376604468155543</v>
       </c>
       <c r="E87">
-        <v>-0.008625576315792742</v>
+        <v>-0.01884266824163594</v>
       </c>
       <c r="F87">
-        <v>-0.09220343498691687</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.04077560607599282</v>
+      </c>
+      <c r="G87">
+        <v>-0.04177125963627549</v>
+      </c>
+      <c r="H87">
+        <v>0.07866397077060003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.02166313117387529</v>
+        <v>-0.04449680383879613</v>
       </c>
       <c r="C88">
-        <v>0.002011977800334332</v>
+        <v>0.01916003152655856</v>
       </c>
       <c r="D88">
-        <v>-0.001500197694001637</v>
+        <v>0.01638714609188753</v>
       </c>
       <c r="E88">
-        <v>-0.008359042869691172</v>
+        <v>0.03060884348732337</v>
       </c>
       <c r="F88">
-        <v>0.02992912288791627</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01138849211005265</v>
+      </c>
+      <c r="G88">
+        <v>-6.290824358205365e-07</v>
+      </c>
+      <c r="H88">
+        <v>0.004403300589806204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09442827780331049</v>
+        <v>-0.3270720986083776</v>
       </c>
       <c r="C89">
-        <v>-0.05573487899153409</v>
+        <v>-0.2843867231742934</v>
       </c>
       <c r="D89">
-        <v>-0.3509492028177794</v>
+        <v>-0.02245485518062573</v>
       </c>
       <c r="E89">
-        <v>0.07185063277168333</v>
+        <v>-0.01762554494398873</v>
       </c>
       <c r="F89">
-        <v>-0.1012374599067559</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.002592812336092431</v>
+      </c>
+      <c r="G89">
+        <v>0.02179649875570151</v>
+      </c>
+      <c r="H89">
+        <v>-0.01831955749407631</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08263765800031314</v>
+        <v>-0.2726904095653333</v>
       </c>
       <c r="C90">
-        <v>-0.01623697413989152</v>
+        <v>-0.2632384279647473</v>
       </c>
       <c r="D90">
-        <v>-0.3502288547898826</v>
+        <v>-0.02144833283102582</v>
       </c>
       <c r="E90">
-        <v>0.0917543167067703</v>
+        <v>-0.01943736540818922</v>
       </c>
       <c r="F90">
-        <v>-0.03826569093048967</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04952404888427935</v>
+      </c>
+      <c r="G90">
+        <v>0.0312907676091763</v>
+      </c>
+      <c r="H90">
+        <v>-0.06036566548881408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2448309668654623</v>
+        <v>-0.188373207666185</v>
       </c>
       <c r="C91">
-        <v>-0.192394096956449</v>
+        <v>0.2107431791500097</v>
       </c>
       <c r="D91">
-        <v>0.0170314083086226</v>
+        <v>-0.04226514256976588</v>
       </c>
       <c r="E91">
-        <v>-0.1542037009359535</v>
+        <v>0.03547907888451852</v>
       </c>
       <c r="F91">
-        <v>0.2249319240850796</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.07401375199231924</v>
+      </c>
+      <c r="G91">
+        <v>0.01524396065574309</v>
+      </c>
+      <c r="H91">
+        <v>-0.1994587951874242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.148061773910069</v>
+        <v>-0.2798402945514946</v>
       </c>
       <c r="C92">
-        <v>-0.07027037630859342</v>
+        <v>-0.1708508457673886</v>
       </c>
       <c r="D92">
-        <v>-0.445974569744124</v>
+        <v>-0.06396656341754753</v>
       </c>
       <c r="E92">
-        <v>-0.0007135123651552923</v>
+        <v>-0.01293117410114931</v>
       </c>
       <c r="F92">
-        <v>0.1230537066681538</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.06483031527504141</v>
+      </c>
+      <c r="G92">
+        <v>-0.008192781486526321</v>
+      </c>
+      <c r="H92">
+        <v>-0.1559505853087062</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08230901217099153</v>
+        <v>-0.3062413393651031</v>
       </c>
       <c r="C93">
-        <v>-0.06490763320892459</v>
+        <v>-0.2569391971225502</v>
       </c>
       <c r="D93">
-        <v>-0.4103960261347303</v>
+        <v>-0.03079137579585148</v>
       </c>
       <c r="E93">
-        <v>0.1458432767380302</v>
+        <v>-0.04676464596709214</v>
       </c>
       <c r="F93">
-        <v>-0.05859071114956015</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01809315489172463</v>
+      </c>
+      <c r="G93">
+        <v>0.03977541580379039</v>
+      </c>
+      <c r="H93">
+        <v>0.007928712909210515</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2345746252233034</v>
+        <v>-0.2288820997157171</v>
       </c>
       <c r="C94">
-        <v>-0.1954841504773883</v>
+        <v>0.2359572348405718</v>
       </c>
       <c r="D94">
-        <v>0.01270865974224216</v>
+        <v>-0.03241167206798287</v>
       </c>
       <c r="E94">
-        <v>-0.2470208264436985</v>
+        <v>0.06169863035471274</v>
       </c>
       <c r="F94">
-        <v>0.144691112166145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.172573037042633</v>
+      </c>
+      <c r="G94">
+        <v>-0.02527216316769797</v>
+      </c>
+      <c r="H94">
+        <v>-0.4268000920589767</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.01230022094924277</v>
+        <v>-0.03330962516227892</v>
       </c>
       <c r="C95">
-        <v>-0.1014390078281209</v>
+        <v>0.1035031512421863</v>
       </c>
       <c r="D95">
-        <v>0.0322355877836011</v>
+        <v>-0.01172666703764611</v>
       </c>
       <c r="E95">
-        <v>-0.02866051923263009</v>
+        <v>-0.09798489980743601</v>
       </c>
       <c r="F95">
-        <v>-0.025247234840271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.01926813416065284</v>
+      </c>
+      <c r="G95">
+        <v>-0.02274306591455632</v>
+      </c>
+      <c r="H95">
+        <v>0.04840010962730424</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1212442432238734</v>
+        <v>-0.185593553488971</v>
       </c>
       <c r="C98">
-        <v>-0.1187966309341692</v>
+        <v>0.07112840064860666</v>
       </c>
       <c r="D98">
-        <v>-0.02269533343537853</v>
+        <v>-0.03380962086011294</v>
       </c>
       <c r="E98">
-        <v>0.07228647000812358</v>
+        <v>-0.05827737346158317</v>
       </c>
       <c r="F98">
-        <v>-0.1791186707583066</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.04931060459380779</v>
+      </c>
+      <c r="G98">
+        <v>-0.0293306403742546</v>
+      </c>
+      <c r="H98">
+        <v>0.334811704482306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01122540523764046</v>
+        <v>-0.005398176369014018</v>
       </c>
       <c r="C101">
-        <v>0.001125462900349216</v>
+        <v>0.01851776621328545</v>
       </c>
       <c r="D101">
-        <v>0.04977636438511863</v>
+        <v>0.005782756354842471</v>
       </c>
       <c r="E101">
-        <v>-0.0250238241504332</v>
+        <v>-0.01896098704846109</v>
       </c>
       <c r="F101">
-        <v>-0.1741876118298572</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.05174377743913575</v>
+      </c>
+      <c r="G101">
+        <v>-0.05821261416001147</v>
+      </c>
+      <c r="H101">
+        <v>0.009227884339649552</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1046867877484245</v>
+        <v>-0.09461656739119345</v>
       </c>
       <c r="C102">
-        <v>-0.07265009757329971</v>
+        <v>0.1117507464520572</v>
       </c>
       <c r="D102">
-        <v>0.005020786260274239</v>
+        <v>-0.008829491581904984</v>
       </c>
       <c r="E102">
-        <v>-0.08758775149654141</v>
+        <v>0.02676148879944013</v>
       </c>
       <c r="F102">
-        <v>0.08731078046411744</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.05122005126650923</v>
+      </c>
+      <c r="G102">
+        <v>-0.00114332284250524</v>
+      </c>
+      <c r="H102">
+        <v>-0.07258136457752903</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04798565302677531</v>
+        <v>-0.01151838237478389</v>
       </c>
       <c r="C103">
-        <v>-0.01707640226488948</v>
+        <v>0.01908204493144347</v>
       </c>
       <c r="D103">
-        <v>0.01466411524776953</v>
+        <v>-0.00133424559977012</v>
       </c>
       <c r="E103">
-        <v>-0.0425035249306526</v>
+        <v>0.01051977301471989</v>
       </c>
       <c r="F103">
-        <v>0.01070541557880895</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01141129237151055</v>
+      </c>
+      <c r="G103">
+        <v>-0.00431385868605811</v>
+      </c>
+      <c r="H103">
+        <v>-0.01722701614609866</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1053785921616391</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.01957976394883449</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9801752621292135</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.05323182386805526</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.04979760710493645</v>
+      </c>
+      <c r="G104">
+        <v>-0.09841930303431286</v>
+      </c>
+      <c r="H104">
+        <v>-0.05909908656877021</v>
       </c>
     </row>
   </sheetData>
